--- a/112306081_資訊管理學系_李國濬.xlsx
+++ b/112306081_資訊管理學系_李國濬.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab9e7cca72bc079b/文件/GitHub/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EDB795-A2D0-4E91-BCBC-1C8C2C3E795E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F5EDB795-A2D0-4E91-BCBC-1C8C2C3E795E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17CEA837-CE96-42D3-B7E4-1075A3CEEE48}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>何大美</t>
   </si>
@@ -235,6 +239,14 @@
       </rPr>
       <t>ò</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>及格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不及格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +582,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -772,7 +784,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-949A-49E2-B884-009EAC4CFCCD}"/>
+                <c16:uniqueId val="{00000001-02D5-404B-9934-BC74C9648558}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -792,7 +804,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-949A-49E2-B884-009EAC4CFCCD}"/>
+                <c16:uniqueId val="{00000003-02D5-404B-9934-BC74C9648558}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -852,9 +864,23 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表2!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>及格</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>不及格</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1020_HW3.xlsx]工作表3'!$B$1:$B$2</c:f>
+              <c:f>工作表2!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -868,37 +894,12 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'[1020_HW3.xlsx]工作表3'!$A$1:$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>及格</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>不及格</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-949A-49E2-B884-009EAC4CFCCD}"/>
+              <c16:uniqueId val="{00000004-02D5-404B-9934-BC74C9648558}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -931,7 +932,274 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表2!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>及格</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>不及格</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$B$1:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81CE-44A2-8CE9-0AC59B9360BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1072,6 +1340,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1576,6 +1884,525 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2135,22 +2962,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
+        <xdr:cNvPr id="4" name="圖表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6459C4-244D-47B2-81E0-7AC107DA731F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74D2524-AEAE-426A-9224-62061D20DD06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,6 +2998,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>188118</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72969013-8EFD-488C-8B9C-58495A35B3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="工作表3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2472,7 +3353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -3165,4 +4046,38 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997C4D57-78EC-4D5F-9CFD-91FFCC0DF48C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/112306081_資訊管理學系_李國濬.xlsx
+++ b/112306081_資訊管理學系_李國濬.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab9e7cca72bc079b/文件/GitHub/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F5EDB795-A2D0-4E91-BCBC-1C8C2C3E795E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17CEA837-CE96-42D3-B7E4-1075A3CEEE48}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{F5EDB795-A2D0-4E91-BCBC-1C8C2C3E795E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6957BA2F-DC8B-4A28-A54F-E0C9FF2630C0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -784,7 +781,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-02D5-404B-9934-BC74C9648558}"/>
+                <c16:uniqueId val="{00000001-B563-44C5-9165-87167D642ABB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -804,7 +801,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-02D5-404B-9934-BC74C9648558}"/>
+                <c16:uniqueId val="{00000003-B563-44C5-9165-87167D642ABB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -895,7 +892,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-02D5-404B-9934-BC74C9648558}"/>
+              <c16:uniqueId val="{00000004-B563-44C5-9165-87167D642ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1162,7 +1159,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81CE-44A2-8CE9-0AC59B9360BB}"/>
+              <c16:uniqueId val="{00000000-90C6-4BCE-A9A4-1DC3DD2D0322}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2974,10 +2971,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3">
+        <xdr:cNvPr id="5" name="圖表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74D2524-AEAE-426A-9224-62061D20DD06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B8B7AC-BE41-45DA-BFFE-A49236670226}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,21 +3003,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>188118</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72969013-8EFD-488C-8B9C-58495A35B3A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E8C24E-0E06-4665-8047-EFF82F26684C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,19 +3036,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="工作表3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4049,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997C4D57-78EC-4D5F-9CFD-91FFCC0DF48C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8B8785-E0EF-40C7-A705-937D54C8CC4B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
